--- a/public/example/club範例檔案.xlsx
+++ b/public/example/club範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,9 @@
   <si>
     <t>p10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_four</t>
   </si>
 </sst>
 </file>
@@ -406,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,12 +443,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
